--- a/Modulo 11 - Fórmulas avançadas/aula-somarproduto.xlsx
+++ b/Modulo 11 - Fórmulas avançadas/aula-somarproduto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Fórmulas avançadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Curso-Excel\Modulo 11 - Fórmulas avançadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEA2C0-1F4C-46E5-AFAC-6082F20357DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDados" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BaseDados!$A$1:$E$273</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,11 +91,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -247,14 +248,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -263,34 +264,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -301,33 +302,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,7 +366,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -392,7 +393,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -514,14 +515,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" totalsRowShown="0" tableBorderDxfId="5">
-  <autoFilter ref="A1:E273"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" totalsRowShown="0" tableBorderDxfId="5">
+  <autoFilter ref="A1:E273" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mês" dataDxfId="4"/>
-    <tableColumn id="2" name="Ano" dataDxfId="3"/>
-    <tableColumn id="3" name="Vendedor" dataDxfId="2"/>
-    <tableColumn id="4" name="Quantidade" dataDxfId="1" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" name="Preço Unitário" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ano" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vendedor" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantidade" dataDxfId="1" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço Unitário" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,21 +824,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -854,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -872,7 +873,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -890,7 +891,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -908,7 +909,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -926,7 +927,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -944,7 +945,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -962,7 +963,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -980,7 +981,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -998,7 +999,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -1034,7 +1035,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1052,7 +1053,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -1070,7 +1071,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1088,7 +1089,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1124,7 +1125,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -1142,7 +1143,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1178,7 +1179,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -1196,7 +1197,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>3</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1232,7 +1233,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1268,7 +1269,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1286,7 +1287,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1304,7 +1305,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1322,7 +1323,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1340,7 +1341,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -1358,7 +1359,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1376,7 +1377,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -1394,7 +1395,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -1412,7 +1413,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1430,7 +1431,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1448,7 +1449,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -1466,7 +1467,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -1484,7 +1485,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>5</v>
       </c>
@@ -1502,7 +1503,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -1520,7 +1521,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -1538,7 +1539,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1556,7 +1557,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -1574,7 +1575,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -1592,7 +1593,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>6</v>
       </c>
@@ -1610,7 +1611,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -1628,7 +1629,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>6</v>
       </c>
@@ -1646,7 +1647,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -1664,7 +1665,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -1682,7 +1683,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>6</v>
       </c>
@@ -1718,7 +1719,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -1736,7 +1737,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -1754,7 +1755,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -1772,7 +1773,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>7</v>
       </c>
@@ -1790,7 +1791,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -1808,7 +1809,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -1826,7 +1827,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>7</v>
       </c>
@@ -1844,7 +1845,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>7</v>
       </c>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>8</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>8</v>
       </c>
@@ -1898,7 +1899,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>8</v>
       </c>
@@ -1916,7 +1917,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -1934,7 +1935,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>8</v>
       </c>
@@ -1952,7 +1953,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>8</v>
       </c>
@@ -1970,7 +1971,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>8</v>
       </c>
@@ -1988,7 +1989,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>8</v>
       </c>
@@ -2006,7 +2007,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>9</v>
       </c>
@@ -2024,7 +2025,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>9</v>
       </c>
@@ -2042,7 +2043,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -2060,7 +2061,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>9</v>
       </c>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>9</v>
       </c>
@@ -2096,7 +2097,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>9</v>
       </c>
@@ -2114,7 +2115,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -2132,7 +2133,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>9</v>
       </c>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>10</v>
       </c>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>10</v>
       </c>
@@ -2186,7 +2187,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>10</v>
       </c>
@@ -2204,7 +2205,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>10</v>
       </c>
@@ -2222,7 +2223,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>10</v>
       </c>
@@ -2240,7 +2241,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>10</v>
       </c>
@@ -2258,7 +2259,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>10</v>
       </c>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>10</v>
       </c>
@@ -2294,7 +2295,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>11</v>
       </c>
@@ -2312,7 +2313,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>11</v>
       </c>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>11</v>
       </c>
@@ -2348,7 +2349,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>11</v>
       </c>
@@ -2366,7 +2367,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>11</v>
       </c>
@@ -2384,7 +2385,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>11</v>
       </c>
@@ -2402,7 +2403,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -2420,7 +2421,7 @@
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>11</v>
       </c>
@@ -2438,7 +2439,7 @@
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -2456,7 +2457,7 @@
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>12</v>
       </c>
@@ -2474,7 +2475,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>12</v>
       </c>
@@ -2492,7 +2493,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>12</v>
       </c>
@@ -2510,7 +2511,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>12</v>
       </c>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>12</v>
       </c>
@@ -2546,7 +2547,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>12</v>
       </c>
@@ -2564,7 +2565,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>12</v>
       </c>
@@ -2582,7 +2583,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -2600,7 +2601,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -2618,7 +2619,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -2636,7 +2637,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -2654,7 +2655,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -2672,7 +2673,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -2690,7 +2691,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -2708,7 +2709,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -2726,7 +2727,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -2744,7 +2745,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2</v>
       </c>
@@ -2762,7 +2763,7 @@
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2</v>
       </c>
@@ -2798,7 +2799,7 @@
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -2816,7 +2817,7 @@
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2</v>
       </c>
@@ -2834,7 +2835,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -2852,7 +2853,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>2</v>
       </c>
@@ -2870,7 +2871,7 @@
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -2888,7 +2889,7 @@
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>3</v>
       </c>
@@ -2906,7 +2907,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -2924,7 +2925,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>3</v>
       </c>
@@ -2942,7 +2943,7 @@
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -2960,7 +2961,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>3</v>
       </c>
@@ -2978,7 +2979,7 @@
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -2996,7 +2997,7 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>3</v>
       </c>
@@ -3014,7 +3015,7 @@
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>4</v>
       </c>
@@ -3050,7 +3051,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -3068,7 +3069,7 @@
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>4</v>
       </c>
@@ -3086,7 +3087,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -3104,7 +3105,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>4</v>
       </c>
@@ -3122,7 +3123,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -3140,7 +3141,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>4</v>
       </c>
@@ -3158,7 +3159,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -3176,7 +3177,7 @@
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>5</v>
       </c>
@@ -3194,7 +3195,7 @@
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -3212,7 +3213,7 @@
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>5</v>
       </c>
@@ -3230,7 +3231,7 @@
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>5</v>
       </c>
@@ -3248,7 +3249,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>5</v>
       </c>
@@ -3266,7 +3267,7 @@
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>5</v>
       </c>
@@ -3284,7 +3285,7 @@
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>5</v>
       </c>
@@ -3302,7 +3303,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -3320,7 +3321,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>6</v>
       </c>
@@ -3338,7 +3339,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -3356,7 +3357,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>6</v>
       </c>
@@ -3374,7 +3375,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -3392,7 +3393,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>6</v>
       </c>
@@ -3410,7 +3411,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -3428,7 +3429,7 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>6</v>
       </c>
@@ -3446,7 +3447,7 @@
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>7</v>
       </c>
@@ -3464,7 +3465,7 @@
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>7</v>
       </c>
@@ -3482,7 +3483,7 @@
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>7</v>
       </c>
@@ -3500,7 +3501,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>7</v>
       </c>
@@ -3518,7 +3519,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -3536,7 +3537,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>7</v>
       </c>
@@ -3554,7 +3555,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>7</v>
       </c>
@@ -3572,7 +3573,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>7</v>
       </c>
@@ -3590,7 +3591,7 @@
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>8</v>
       </c>
@@ -3608,7 +3609,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>8</v>
       </c>
@@ -3626,7 +3627,7 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>8</v>
       </c>
@@ -3644,7 +3645,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>8</v>
       </c>
@@ -3662,7 +3663,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>8</v>
       </c>
@@ -3680,7 +3681,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>8</v>
       </c>
@@ -3698,7 +3699,7 @@
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>8</v>
       </c>
@@ -3716,7 +3717,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>8</v>
       </c>
@@ -3734,7 +3735,7 @@
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>9</v>
       </c>
@@ -3752,7 +3753,7 @@
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>9</v>
       </c>
@@ -3770,7 +3771,7 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>9</v>
       </c>
@@ -3788,7 +3789,7 @@
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>9</v>
       </c>
@@ -3806,7 +3807,7 @@
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>9</v>
       </c>
@@ -3824,7 +3825,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>9</v>
       </c>
@@ -3842,7 +3843,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>9</v>
       </c>
@@ -3860,7 +3861,7 @@
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>9</v>
       </c>
@@ -3878,7 +3879,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>10</v>
       </c>
@@ -3896,7 +3897,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>10</v>
       </c>
@@ -3914,7 +3915,7 @@
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>10</v>
       </c>
@@ -3932,7 +3933,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>10</v>
       </c>
@@ -3950,7 +3951,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>10</v>
       </c>
@@ -3968,7 +3969,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>10</v>
       </c>
@@ -3986,7 +3987,7 @@
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>10</v>
       </c>
@@ -4004,7 +4005,7 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>10</v>
       </c>
@@ -4022,7 +4023,7 @@
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>11</v>
       </c>
@@ -4040,7 +4041,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>11</v>
       </c>
@@ -4058,7 +4059,7 @@
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>11</v>
       </c>
@@ -4076,7 +4077,7 @@
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>11</v>
       </c>
@@ -4094,7 +4095,7 @@
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>11</v>
       </c>
@@ -4112,7 +4113,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>11</v>
       </c>
@@ -4130,7 +4131,7 @@
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>11</v>
       </c>
@@ -4148,7 +4149,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>11</v>
       </c>
@@ -4166,7 +4167,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>12</v>
       </c>
@@ -4184,7 +4185,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>12</v>
       </c>
@@ -4202,7 +4203,7 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -4220,7 +4221,7 @@
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>12</v>
       </c>
@@ -4238,7 +4239,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>12</v>
       </c>
@@ -4256,7 +4257,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>12</v>
       </c>
@@ -4274,7 +4275,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>12</v>
       </c>
@@ -4292,7 +4293,7 @@
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>12</v>
       </c>
@@ -4310,7 +4311,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -4328,7 +4329,7 @@
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -4346,7 +4347,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -4364,7 +4365,7 @@
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -4382,7 +4383,7 @@
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -4400,7 +4401,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -4418,7 +4419,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -4436,7 +4437,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>1</v>
       </c>
@@ -4454,7 +4455,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>2</v>
       </c>
@@ -4472,7 +4473,7 @@
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>2</v>
       </c>
@@ -4490,7 +4491,7 @@
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -4508,7 +4509,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>2</v>
       </c>
@@ -4526,7 +4527,7 @@
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>2</v>
       </c>
@@ -4544,7 +4545,7 @@
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>2</v>
       </c>
@@ -4562,7 +4563,7 @@
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -4580,7 +4581,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>2</v>
       </c>
@@ -4598,7 +4599,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>3</v>
       </c>
@@ -4616,7 +4617,7 @@
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>3</v>
       </c>
@@ -4634,7 +4635,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -4652,7 +4653,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>3</v>
       </c>
@@ -4670,7 +4671,7 @@
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>3</v>
       </c>
@@ -4688,7 +4689,7 @@
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>3</v>
       </c>
@@ -4706,7 +4707,7 @@
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>3</v>
       </c>
@@ -4724,7 +4725,7 @@
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>3</v>
       </c>
@@ -4742,7 +4743,7 @@
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>4</v>
       </c>
@@ -4760,7 +4761,7 @@
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>4</v>
       </c>
@@ -4778,7 +4779,7 @@
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>4</v>
       </c>
@@ -4796,7 +4797,7 @@
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>4</v>
       </c>
@@ -4814,7 +4815,7 @@
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>4</v>
       </c>
@@ -4832,7 +4833,7 @@
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>4</v>
       </c>
@@ -4850,7 +4851,7 @@
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>4</v>
       </c>
@@ -4868,7 +4869,7 @@
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>4</v>
       </c>
@@ -4886,7 +4887,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -4904,7 +4905,7 @@
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>5</v>
       </c>
@@ -4922,7 +4923,7 @@
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -4940,7 +4941,7 @@
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
         <v>5</v>
       </c>
@@ -4958,7 +4959,7 @@
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -4976,7 +4977,7 @@
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>5</v>
       </c>
@@ -4994,7 +4995,7 @@
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -5012,7 +5013,7 @@
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>5</v>
       </c>
@@ -5030,7 +5031,7 @@
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>6</v>
       </c>
@@ -5048,7 +5049,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>6</v>
       </c>
@@ -5066,7 +5067,7 @@
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>6</v>
       </c>
@@ -5084,7 +5085,7 @@
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
         <v>6</v>
       </c>
@@ -5102,7 +5103,7 @@
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>6</v>
       </c>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>6</v>
       </c>
@@ -5138,7 +5139,7 @@
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>6</v>
       </c>
@@ -5156,7 +5157,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>6</v>
       </c>
@@ -5174,7 +5175,7 @@
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>7</v>
       </c>
@@ -5192,7 +5193,7 @@
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
         <v>7</v>
       </c>
@@ -5210,7 +5211,7 @@
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>7</v>
       </c>
@@ -5228,7 +5229,7 @@
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>7</v>
       </c>
@@ -5246,7 +5247,7 @@
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>7</v>
       </c>
@@ -5264,7 +5265,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
         <v>7</v>
       </c>
@@ -5282,7 +5283,7 @@
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>7</v>
       </c>
@@ -5300,7 +5301,7 @@
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>7</v>
       </c>
@@ -5318,7 +5319,7 @@
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -5336,7 +5337,7 @@
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>8</v>
       </c>
@@ -5354,7 +5355,7 @@
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -5372,7 +5373,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>8</v>
       </c>
@@ -5390,7 +5391,7 @@
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>8</v>
       </c>
@@ -5408,7 +5409,7 @@
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
         <v>8</v>
       </c>
@@ -5426,7 +5427,7 @@
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -5444,7 +5445,7 @@
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
         <v>8</v>
       </c>
@@ -5462,7 +5463,7 @@
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>9</v>
       </c>
@@ -5480,7 +5481,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>9</v>
       </c>
@@ -5498,7 +5499,7 @@
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>9</v>
       </c>
@@ -5516,7 +5517,7 @@
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>9</v>
       </c>
@@ -5534,7 +5535,7 @@
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>9</v>
       </c>
@@ -5552,7 +5553,7 @@
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>9</v>
       </c>
@@ -5570,7 +5571,7 @@
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>9</v>
       </c>
@@ -5588,7 +5589,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>9</v>
       </c>
@@ -5606,7 +5607,7 @@
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>10</v>
       </c>
@@ -5624,7 +5625,7 @@
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>10</v>
       </c>
@@ -5642,7 +5643,7 @@
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>10</v>
       </c>
@@ -5660,7 +5661,7 @@
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>10</v>
       </c>
@@ -5678,7 +5679,7 @@
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>10</v>
       </c>
@@ -5696,7 +5697,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
         <v>10</v>
       </c>
@@ -5714,7 +5715,7 @@
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>10</v>
       </c>
@@ -5732,7 +5733,7 @@
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>10</v>
       </c>
@@ -5759,26 +5760,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" customWidth="1"/>
+    <col min="6" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="5.7265625" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
@@ -5794,7 +5795,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
@@ -5810,7 +5811,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -5825,7 +5826,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -5890,7 +5891,7 @@
       </c>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -5906,7 +5907,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -5920,13 +5921,19 @@
       <c r="F9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <f>SUMPRODUCT((TbItemVenda[Vendedor]=F6)*(TbItemVenda[Ano]=G6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
+        <v>7474.0611257348191</v>
+      </c>
       <c r="I9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="27">
+        <f>SUMPRODUCT(((TbItemVenda[Vendedor]=I6)+(TbItemVenda[Vendedor]=I7))*(TbItemVenda[Ano]=J6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
+        <v>38933.241005711279</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
@@ -5942,56 +5949,59 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="21">
+        <f>SUMPRODUCT(C6:C10,D6:D10)</f>
+        <v>11289.688201319288</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F15" s="29"/>
       <c r="G15" s="1"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F16" s="29"/>
       <c r="G16" s="1"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F17" s="29"/>
       <c r="G17" s="1"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D19" s="7"/>
     </row>
   </sheetData>
@@ -6001,7 +6011,7 @@
     <mergeCell ref="F6:F7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7 I6 I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7 I6 I7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Anakin,Barry Allen,Kal-El,Logan,Padmé Amidala,Rachel Roth,Victor Von Doom,Wanda Maximoff"</formula1>
     </dataValidation>
   </dataValidations>
